--- a/交易记录.xlsx
+++ b/交易记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="152">
   <si>
     <t>进场值</t>
   </si>
@@ -440,6 +440,42 @@
   </si>
   <si>
     <t>12/25/2018</t>
+  </si>
+  <si>
+    <t>12/26/2018</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>入场原则</t>
+  </si>
+  <si>
+    <t>MACD交叉，0.8开始反向，stoch已经反向</t>
+  </si>
+  <si>
+    <t>最大原则</t>
+  </si>
+  <si>
+    <t>一定要设置止损和跟随止盈</t>
+  </si>
+  <si>
+    <t>12/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必须满足3个条件  </t>
+  </si>
+  <si>
+    <t>MACD为正，stoch 上正，0.8和0.6上升</t>
+  </si>
+  <si>
+    <t>MACD为负，stoch 为负，0.8和0.6下降</t>
+  </si>
+  <si>
+    <t>出场原则  满足两个必须出场</t>
+  </si>
+  <si>
+    <t>MACD离0轴较远时，可以做建仓考虑</t>
   </si>
 </sst>
 </file>
@@ -534,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,6 +605,7 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1067,8 +1104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,6 +1212,9 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1214,6 +1255,9 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1254,6 +1298,9 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1297,6 +1344,9 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1342,6 +1392,9 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1427,6 +1480,9 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1469,6 +1525,9 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1516,6 +1575,9 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1561,6 +1623,9 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1748,7 +1813,10 @@
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1796,7 +1864,10 @@
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1842,30 +1913,49 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="14"/>
+      <c r="C19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1.1378299999999999</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1.1368</v>
+      </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="I19" s="14">
+        <v>1.1400999999999999</v>
+      </c>
       <c r="J19" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="4"/>
+        <v>2.2699999999999942E-3</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1.1400999999999999</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="M19" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2.2699999999999942E-3</v>
       </c>
       <c r="N19" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
+        <v>亏</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>131</v>
@@ -1874,7 +1964,10 @@
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
@@ -1904,7 +1997,7 @@
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
@@ -1934,7 +2027,7 @@
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1966,7 +2059,7 @@
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
@@ -1992,7 +2085,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
@@ -2018,7 +2111,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
@@ -2043,8 +2136,16 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P25" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
@@ -2069,8 +2170,14 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
@@ -2095,8 +2202,14 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>33</v>
       </c>
@@ -2121,8 +2234,12 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>34</v>
       </c>
@@ -2147,8 +2264,14 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P29" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>35</v>
       </c>
@@ -2173,8 +2296,13 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q30" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>36</v>
       </c>
@@ -2199,8 +2327,11 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q31" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>37</v>
       </c>
@@ -2226,7 +2357,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
@@ -2251,8 +2382,12 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P33" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q33" s="18"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>39</v>
       </c>
@@ -2277,8 +2412,12 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
@@ -2304,7 +2443,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
@@ -2330,7 +2469,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>42</v>
       </c>
@@ -2356,7 +2495,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>43</v>
       </c>
@@ -2382,7 +2521,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>44</v>
       </c>
@@ -2408,7 +2547,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>45</v>
       </c>
@@ -2434,7 +2573,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>46</v>
       </c>
@@ -2460,7 +2599,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>47</v>
       </c>
@@ -2486,7 +2625,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
@@ -2512,7 +2651,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>49</v>
       </c>
@@ -2538,7 +2677,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>50</v>
       </c>
@@ -2564,7 +2703,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>51</v>
       </c>
@@ -2590,7 +2729,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>52</v>
       </c>
@@ -2616,7 +2755,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>53</v>
       </c>

--- a/交易记录.xlsx
+++ b/交易记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="156">
   <si>
     <t>进场值</t>
   </si>
@@ -476,6 +476,18 @@
   </si>
   <si>
     <t>MACD离0轴较远时，可以做建仓考虑</t>
+  </si>
+  <si>
+    <t>关键点 MACD 正负的变化</t>
+  </si>
+  <si>
+    <t>关键原则</t>
+  </si>
+  <si>
+    <t>三个信号相同进入， 两个信号相同出来</t>
+  </si>
+  <si>
+    <t>12/28/2018</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1117,8 @@
   <dimension ref="A2:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1971,26 +1983,38 @@
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="7">
+        <v>126.65300000000001</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="4"/>
+        <v>126.65300000000001</v>
+      </c>
+      <c r="K20" s="7">
+        <v>126.071</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="M20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.58200000000000784</v>
       </c>
       <c r="N20" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
+        <v>亏</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
@@ -2002,21 +2026,31 @@
         <v>26</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="7">
+        <v>78.004000000000005</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="14">
+        <v>77.599999999999994</v>
+      </c>
       <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="14">
+        <v>78.7</v>
+      </c>
       <c r="J21" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.69599999999999795</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="4"/>
       <c r="M21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>78.004000000000005</v>
       </c>
       <c r="N21" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2442,6 +2476,10 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
+      <c r="P35" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
@@ -2468,6 +2506,10 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
@@ -2494,6 +2536,8 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
@@ -2545,6 +2589,9 @@
       <c r="N39" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">

--- a/交易记录.xlsx
+++ b/交易记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="157">
   <si>
     <t>进场值</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>12/28/2018</t>
+  </si>
+  <si>
+    <t>奥日</t>
   </si>
 </sst>
 </file>
@@ -1116,9 +1119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2022,6 +2025,9 @@
       <c r="T20" s="17"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
@@ -2046,11 +2052,15 @@
         <f t="shared" si="0"/>
         <v>0.69599999999999795</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="4"/>
+      <c r="K21" s="7">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="M21" s="7">
         <f t="shared" si="2"/>
-        <v>78.004000000000005</v>
+        <v>0.40400000000001057</v>
       </c>
       <c r="N21" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2065,26 +2075,38 @@
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="14"/>
+      <c r="C22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1.14592</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1.1508400000000001</v>
+      </c>
       <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="I22" s="14">
+        <v>113.9</v>
+      </c>
       <c r="J22" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-112.75408</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="4"/>
       <c r="M22" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.14592</v>
       </c>
       <c r="N22" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
+        <v>亏</v>
       </c>
       <c r="Q22" s="16" t="s">
         <v>133</v>

--- a/交易记录.xlsx
+++ b/交易记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="170">
   <si>
     <t>进场值</t>
   </si>
@@ -491,6 +491,45 @@
   </si>
   <si>
     <t>奥日</t>
+  </si>
+  <si>
+    <t>1/10/2019</t>
+  </si>
+  <si>
+    <t>1/3/2019</t>
+  </si>
+  <si>
+    <t>1/11/2019</t>
+  </si>
+  <si>
+    <t>1/14/2019</t>
+  </si>
+  <si>
+    <t>1/16/2019</t>
+  </si>
+  <si>
+    <t>1/17/2019</t>
+  </si>
+  <si>
+    <t>趋势变了，没有止损，执行力不够</t>
+  </si>
+  <si>
+    <t>被打掉了</t>
+  </si>
+  <si>
+    <t>1/23/2019</t>
+  </si>
+  <si>
+    <t>1/22/2019</t>
+  </si>
+  <si>
+    <t>1/25/2019</t>
+  </si>
+  <si>
+    <t>没沉住气</t>
+  </si>
+  <si>
+    <t>没沉住气H4 MACD还没有为正知识交叉</t>
   </si>
 </sst>
 </file>
@@ -532,7 +571,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +593,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,7 +651,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,6 +665,16 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1117,32 +1171,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T102"/>
+  <dimension ref="A2:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="8.88671875" style="5"/>
-    <col min="3" max="4" width="10.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="8" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.21875" style="8" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="10" customWidth="1"/>
     <col min="11" max="11" width="11.109375" style="8" customWidth="1"/>
     <col min="12" max="12" width="15.21875" style="5" customWidth="1"/>
     <col min="13" max="13" width="10.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="8.44140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1158,16 +1214,16 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>120</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -1183,127 +1239,127 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="13">
         <v>0.71997</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13">
         <v>0.71923999999999999</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <f>IF(D3="卖",I3-E3,E3-I3)</f>
         <v>7.3000000000000842E-4</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="21">
         <v>0.71923999999999999</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="13">
         <f>IF(D3="卖",E3-K3,K3-E3)</f>
         <v>-7.3000000000000842E-4</v>
       </c>
-      <c r="N3" s="9" t="str">
+      <c r="N3" s="18" t="str">
         <f>IF(M3&gt;=0,"盈","亏")</f>
         <v>亏</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="13">
         <v>0.99053999999999998</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13">
         <v>0.99102999999999997</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <f t="shared" ref="J4:J67" si="0">IF(D4="卖",I4-E4,E4-I4)</f>
         <v>4.8999999999999044E-4</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="13">
         <v>0.99102999999999997</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="13">
         <f>IF(D4="卖",E4-K4,K4-E4)</f>
         <v>-4.8999999999999044E-4</v>
       </c>
-      <c r="N4" s="9" t="str">
+      <c r="N4" s="18" t="str">
         <f t="shared" ref="N4:N67" si="1">IF(M4&gt;=0,"盈","亏")</f>
         <v>亏</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="13">
         <v>0.99121999999999999</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13">
         <v>0.99134999999999995</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>-1.2999999999996348E-4</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="13">
         <v>0.99134999999999995</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="13">
         <f t="shared" ref="M5:M68" si="2">IF(D5="卖",E5-K5,K5-E5)</f>
         <v>1.2999999999996348E-4</v>
       </c>
@@ -1312,89 +1368,89 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="13">
         <v>0.99160999999999999</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
         <v>6.0999999999999943E-4</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="13">
         <v>0.99102999999999997</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="13">
         <f t="shared" si="2"/>
         <v>-5.8000000000002494E-4</v>
       </c>
-      <c r="N6" s="9" t="str">
+      <c r="N6" s="18" t="str">
         <f t="shared" si="1"/>
         <v>亏</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="13">
         <v>1.2682899999999999</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>1.2669999999999999</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13">
         <v>1.27</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>1.7100000000001003E-3</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="13">
         <v>1.2669999999999999</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="13">
         <f t="shared" si="2"/>
         <v>1.2900000000000134E-3</v>
       </c>
@@ -1402,182 +1458,182 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="13">
         <v>142.46299999999999</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13">
         <v>142.6</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>0.13700000000000045</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="13">
         <v>142.6</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="13">
         <f t="shared" si="2"/>
         <v>-0.13700000000000045</v>
       </c>
-      <c r="N8" s="9" t="str">
+      <c r="N8" s="18" t="str">
         <f t="shared" si="1"/>
         <v>亏</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="13">
         <v>112.53700000000001</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>112.7</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13">
         <v>112.28</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>0.257000000000005</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="13">
         <v>112.28</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="13">
         <f t="shared" si="2"/>
         <v>-0.257000000000005</v>
       </c>
-      <c r="N9" s="9" t="str">
+      <c r="N9" s="18" t="str">
         <f t="shared" si="1"/>
         <v>亏</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="13">
         <v>128.029</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>128.18</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13">
         <v>127.75</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <f t="shared" si="0"/>
         <v>0.27899999999999636</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="13">
         <v>127.75</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="13">
         <f t="shared" si="2"/>
         <v>-0.27899999999999636</v>
       </c>
-      <c r="N10" s="9" t="str">
+      <c r="N10" s="18" t="str">
         <f t="shared" si="1"/>
         <v>亏</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="13">
         <v>1.2640100000000001</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>1.2635000000000001</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>1.264</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>1.2635000000000001</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>-5.1000000000001044E-4</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="13">
         <v>1.2635000000000001</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="13">
         <f t="shared" si="2"/>
         <v>5.1000000000001044E-4</v>
       </c>
@@ -1585,47 +1641,47 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="13">
         <v>1.2631399999999999</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>1.2616000000000001</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13">
         <v>1.2628999999999999</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <f t="shared" si="0"/>
         <v>-2.4000000000001798E-4</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="13">
         <v>1.2628999999999999</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="13">
         <f t="shared" si="2"/>
         <v>2.4000000000001798E-4</v>
       </c>
@@ -1633,138 +1689,138 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="13">
         <v>1.2617100000000001</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13">
         <v>1.2674099999999999</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <f t="shared" si="0"/>
         <v>5.6999999999998163E-3</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="13">
         <v>1.2674099999999999</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="13">
         <f t="shared" si="2"/>
         <v>-5.6999999999998163E-3</v>
       </c>
-      <c r="N13" s="9" t="str">
+      <c r="N13" s="18" t="str">
         <f t="shared" si="1"/>
         <v>亏</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="13">
         <v>128.25700000000001</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>128.4</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13">
         <v>127.985</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <f t="shared" si="0"/>
         <v>0.27200000000000557</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="13">
         <v>127.983</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="13">
         <f t="shared" si="2"/>
         <v>-0.27400000000000091</v>
       </c>
-      <c r="N14" s="9" t="str">
+      <c r="N14" s="18" t="str">
         <f t="shared" si="1"/>
         <v>亏</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="13">
         <v>0.98934</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>0.98834</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13">
         <v>0.995</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <f t="shared" si="0"/>
         <v>5.6599999999999984E-3</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="13">
         <v>0.98834</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="13">
         <f t="shared" si="2"/>
         <v>1.0000000000000009E-3</v>
       </c>
@@ -1772,50 +1828,50 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="Q15" s="16" t="s">
+      <c r="S15" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="13">
         <v>141.53200000000001</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>141.19999999999999</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13">
         <v>142.19999999999999</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <f t="shared" si="0"/>
         <v>0.66799999999997794</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="13">
         <v>141.19999999999999</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="13">
         <f t="shared" si="2"/>
         <v>0.33200000000002206</v>
       </c>
@@ -1823,48 +1879,48 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="13">
         <v>111.095</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>111</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13">
         <v>111.7</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <f t="shared" si="0"/>
         <v>0.60500000000000398</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="13">
         <v>111</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="13">
         <f t="shared" si="2"/>
         <v>9.4999999999998863E-2</v>
       </c>
@@ -1872,48 +1928,48 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="Q17" s="16" t="s">
+      <c r="S17" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="13">
         <v>110.955</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>110.462</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13">
         <f t="shared" si="0"/>
         <v>-110.955</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="13">
         <v>110.462</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="13">
         <f t="shared" si="2"/>
         <v>0.492999999999995</v>
       </c>
@@ -1921,144 +1977,144 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="S18" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="13">
         <v>1.1378299999999999</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>1.1368</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13">
         <v>1.1400999999999999</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <f t="shared" si="0"/>
         <v>2.2699999999999942E-3</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="13">
         <v>1.1400999999999999</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="13">
         <f t="shared" si="2"/>
         <v>-2.2699999999999942E-3</v>
       </c>
-      <c r="N19" s="9" t="str">
+      <c r="N19" s="18" t="str">
         <f t="shared" si="1"/>
         <v>亏</v>
       </c>
-      <c r="Q19" s="16" t="s">
+      <c r="S19" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="13">
         <v>126.65300000000001</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13">
         <f t="shared" si="0"/>
         <v>126.65300000000001</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="13">
         <v>126.071</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="13">
         <f t="shared" si="2"/>
         <v>-0.58200000000000784</v>
       </c>
-      <c r="N20" s="9" t="str">
+      <c r="N20" s="18" t="str">
         <f t="shared" si="1"/>
         <v>亏</v>
       </c>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="13">
         <v>78.004000000000005</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>77.599999999999994</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13">
         <v>78.7</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <f t="shared" si="0"/>
         <v>0.69599999999999795</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="13">
         <v>77.599999999999994</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="13">
         <f t="shared" si="2"/>
         <v>0.40400000000001057</v>
       </c>
@@ -2066,299 +2122,436 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="13">
         <v>1.14592</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>1.1508400000000001</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13">
         <v>113.9</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <f t="shared" si="0"/>
         <v>-112.75408</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="7">
-        <f t="shared" si="2"/>
-        <v>-1.14592</v>
-      </c>
-      <c r="N22" s="9" t="str">
+      <c r="K22" s="13">
+        <v>1.135</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M22" s="13">
+        <f t="shared" si="2"/>
+        <v>-1.0920000000000041E-2</v>
+      </c>
+      <c r="N22" s="18" t="str">
         <f t="shared" si="1"/>
         <v>亏</v>
       </c>
-      <c r="Q22" s="16" t="s">
+      <c r="P22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S22" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C23" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.97680999999999996</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.97680999999999996</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.97680999999999996</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0.97680999999999996</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M23" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>盈</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C24" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.98284000000000005</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.98284000000000005</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0.99185999999999996</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" s="13">
+        <f t="shared" si="2"/>
+        <v>-9.019999999999917E-3</v>
+      </c>
+      <c r="N24" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>亏</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C25" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="13">
+        <v>124.054</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="13">
+        <v>123.589</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13">
+        <f t="shared" si="0"/>
+        <v>-124.054</v>
+      </c>
+      <c r="K25" s="13">
+        <v>123.589</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" s="13">
+        <f t="shared" si="2"/>
+        <v>0.46500000000000341</v>
       </c>
       <c r="N25" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="R25" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="Q25" s="18" t="s">
+      <c r="S25" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C26" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1.2875300000000001</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1.29236</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13">
+        <f t="shared" si="0"/>
+        <v>1.2875300000000001</v>
+      </c>
+      <c r="K26" s="13">
+        <v>1.29236</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M26" s="13">
+        <f t="shared" si="2"/>
+        <v>4.8299999999998899E-3</v>
       </c>
       <c r="N26" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18" t="s">
+      <c r="R26" s="17"/>
+      <c r="S26" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C27" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0.71538999999999997</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.71538999999999997</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0.71355999999999997</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M27" s="13">
+        <f t="shared" si="2"/>
+        <v>1.8299999999999983E-3</v>
       </c>
       <c r="N27" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18" t="s">
+      <c r="R27" s="17"/>
+      <c r="S27" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C28" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="13">
+        <v>142.84700000000001</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13">
+        <f t="shared" si="0"/>
+        <v>142.84700000000001</v>
+      </c>
+      <c r="K28" s="13">
+        <v>143.34</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M28" s="13">
+        <f t="shared" si="2"/>
+        <v>0.492999999999995</v>
       </c>
       <c r="N28" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C29" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0.71204999999999996</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.71204999999999996</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0.71484999999999999</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M29" s="13">
+        <f t="shared" si="2"/>
+        <v>-2.8000000000000247E-3</v>
       </c>
       <c r="N29" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
-      <c r="P29" s="18" t="s">
+        <v>亏</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R29" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C30" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0.71238000000000001</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0.91139000000000003</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.71238000000000001</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0.71462000000000003</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" s="13">
+        <f t="shared" si="2"/>
+        <v>-2.2400000000000198E-3</v>
       </c>
       <c r="N30" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
-      <c r="Q30" s="18" t="s">
+        <v>亏</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>36</v>
       </c>
@@ -2366,10 +2559,10 @@
       <c r="D31" s="4"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2383,11 +2576,15 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="R31" s="17"/>
+      <c r="S31" s="17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>37</v>
       </c>
@@ -2395,10 +2592,10 @@
       <c r="D32" s="4"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14">
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2412,8 +2609,13 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
@@ -2421,10 +2623,10 @@
       <c r="D33" s="4"/>
       <c r="E33" s="7"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14">
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2438,12 +2640,15 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="P33" s="18" t="s">
+      <c r="R33" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="Q33" s="18"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>39</v>
       </c>
@@ -2451,10 +2656,10 @@
       <c r="D34" s="4"/>
       <c r="E34" s="7"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14">
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2468,12 +2673,15 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18" t="s">
+      <c r="R34" s="17"/>
+      <c r="S34" s="17" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
@@ -2481,10 +2689,10 @@
       <c r="D35" s="4"/>
       <c r="E35" s="7"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14">
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2498,12 +2706,15 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="P35" s="18" t="s">
+      <c r="R35" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="Q35" s="18"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
@@ -2511,10 +2722,10 @@
       <c r="D36" s="4"/>
       <c r="E36" s="7"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14">
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2528,12 +2739,15 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18" t="s">
+      <c r="R36" s="17"/>
+      <c r="S36" s="17" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>42</v>
       </c>
@@ -2541,10 +2755,10 @@
       <c r="D37" s="4"/>
       <c r="E37" s="7"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14">
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2558,10 +2772,13 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>43</v>
       </c>
@@ -2569,10 +2786,10 @@
       <c r="D38" s="4"/>
       <c r="E38" s="7"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14">
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2586,8 +2803,13 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>44</v>
       </c>
@@ -2595,10 +2817,10 @@
       <c r="D39" s="4"/>
       <c r="E39" s="7"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14">
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2612,11 +2834,15 @@
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="R39" s="17" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>45</v>
       </c>
@@ -2624,10 +2850,10 @@
       <c r="D40" s="4"/>
       <c r="E40" s="7"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14">
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2642,7 +2868,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>46</v>
       </c>
@@ -2650,10 +2876,10 @@
       <c r="D41" s="4"/>
       <c r="E41" s="7"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14">
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2668,7 +2894,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>47</v>
       </c>
@@ -2676,10 +2902,10 @@
       <c r="D42" s="4"/>
       <c r="E42" s="7"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14">
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2694,7 +2920,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
@@ -2702,10 +2928,10 @@
       <c r="D43" s="4"/>
       <c r="E43" s="7"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14">
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2720,7 +2946,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>49</v>
       </c>
@@ -2728,10 +2954,10 @@
       <c r="D44" s="4"/>
       <c r="E44" s="7"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14">
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2746,7 +2972,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>50</v>
       </c>
@@ -2754,10 +2980,10 @@
       <c r="D45" s="4"/>
       <c r="E45" s="7"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14">
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2772,7 +2998,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>51</v>
       </c>
@@ -2780,10 +3006,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14">
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2798,7 +3024,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>52</v>
       </c>
@@ -2806,10 +3032,10 @@
       <c r="D47" s="4"/>
       <c r="E47" s="7"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14">
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2824,7 +3050,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>53</v>
       </c>
@@ -2832,10 +3058,10 @@
       <c r="D48" s="4"/>
       <c r="E48" s="7"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14">
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2858,10 +3084,10 @@
       <c r="D49" s="4"/>
       <c r="E49" s="7"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14">
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2884,10 +3110,10 @@
       <c r="D50" s="4"/>
       <c r="E50" s="7"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14">
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2910,10 +3136,10 @@
       <c r="D51" s="4"/>
       <c r="E51" s="7"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14">
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2936,10 +3162,10 @@
       <c r="D52" s="4"/>
       <c r="E52" s="7"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14">
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2962,10 +3188,10 @@
       <c r="D53" s="4"/>
       <c r="E53" s="7"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14">
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2988,10 +3214,10 @@
       <c r="D54" s="4"/>
       <c r="E54" s="7"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14">
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3014,10 +3240,10 @@
       <c r="D55" s="4"/>
       <c r="E55" s="7"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14">
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3040,10 +3266,10 @@
       <c r="D56" s="4"/>
       <c r="E56" s="7"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14">
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3066,10 +3292,10 @@
       <c r="D57" s="4"/>
       <c r="E57" s="7"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14">
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3092,10 +3318,10 @@
       <c r="D58" s="4"/>
       <c r="E58" s="7"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14">
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3118,10 +3344,10 @@
       <c r="D59" s="4"/>
       <c r="E59" s="7"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14">
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3144,10 +3370,10 @@
       <c r="D60" s="4"/>
       <c r="E60" s="7"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14">
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3170,10 +3396,10 @@
       <c r="D61" s="4"/>
       <c r="E61" s="7"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14">
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3196,10 +3422,10 @@
       <c r="D62" s="4"/>
       <c r="E62" s="7"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14">
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3222,10 +3448,10 @@
       <c r="D63" s="4"/>
       <c r="E63" s="7"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14">
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3248,10 +3474,10 @@
       <c r="D64" s="4"/>
       <c r="E64" s="7"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14">
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3274,10 +3500,10 @@
       <c r="D65" s="4"/>
       <c r="E65" s="7"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14">
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3300,10 +3526,10 @@
       <c r="D66" s="4"/>
       <c r="E66" s="7"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14">
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3326,10 +3552,10 @@
       <c r="D67" s="4"/>
       <c r="E67" s="7"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14">
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3352,10 +3578,10 @@
       <c r="D68" s="4"/>
       <c r="E68" s="7"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14">
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13">
         <f t="shared" ref="J68:J102" si="3">IF(D68="卖",I68-E68,E68-I68)</f>
         <v>0</v>
       </c>
@@ -3378,10 +3604,10 @@
       <c r="D69" s="4"/>
       <c r="E69" s="7"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14">
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3404,10 +3630,10 @@
       <c r="D70" s="4"/>
       <c r="E70" s="7"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14">
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3430,10 +3656,10 @@
       <c r="D71" s="4"/>
       <c r="E71" s="7"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14">
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3456,10 +3682,10 @@
       <c r="D72" s="4"/>
       <c r="E72" s="7"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14">
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3482,10 +3708,10 @@
       <c r="D73" s="4"/>
       <c r="E73" s="7"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14">
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3508,10 +3734,10 @@
       <c r="D74" s="4"/>
       <c r="E74" s="7"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14">
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3534,10 +3760,10 @@
       <c r="D75" s="4"/>
       <c r="E75" s="7"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14">
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3560,10 +3786,10 @@
       <c r="D76" s="4"/>
       <c r="E76" s="7"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14">
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3586,10 +3812,10 @@
       <c r="D77" s="4"/>
       <c r="E77" s="7"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14">
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3612,10 +3838,10 @@
       <c r="D78" s="4"/>
       <c r="E78" s="7"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14">
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3638,10 +3864,10 @@
       <c r="D79" s="4"/>
       <c r="E79" s="7"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14">
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3664,10 +3890,10 @@
       <c r="D80" s="4"/>
       <c r="E80" s="7"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14">
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3690,10 +3916,10 @@
       <c r="D81" s="4"/>
       <c r="E81" s="7"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14">
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3716,10 +3942,10 @@
       <c r="D82" s="4"/>
       <c r="E82" s="7"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14">
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3742,10 +3968,10 @@
       <c r="D83" s="4"/>
       <c r="E83" s="7"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14">
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3768,10 +3994,10 @@
       <c r="D84" s="4"/>
       <c r="E84" s="7"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14">
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3794,10 +4020,10 @@
       <c r="D85" s="4"/>
       <c r="E85" s="7"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14">
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3820,10 +4046,10 @@
       <c r="D86" s="4"/>
       <c r="E86" s="7"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14">
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3846,10 +4072,10 @@
       <c r="D87" s="4"/>
       <c r="E87" s="7"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14">
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3872,10 +4098,10 @@
       <c r="D88" s="4"/>
       <c r="E88" s="7"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14">
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3898,10 +4124,10 @@
       <c r="D89" s="4"/>
       <c r="E89" s="7"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14">
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3924,10 +4150,10 @@
       <c r="D90" s="4"/>
       <c r="E90" s="7"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14">
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3950,10 +4176,10 @@
       <c r="D91" s="4"/>
       <c r="E91" s="7"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14">
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3976,10 +4202,10 @@
       <c r="D92" s="4"/>
       <c r="E92" s="7"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14">
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4002,10 +4228,10 @@
       <c r="D93" s="4"/>
       <c r="E93" s="7"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14">
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4028,10 +4254,10 @@
       <c r="D94" s="4"/>
       <c r="E94" s="7"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14">
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4054,10 +4280,10 @@
       <c r="D95" s="4"/>
       <c r="E95" s="7"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14">
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4080,10 +4306,10 @@
       <c r="D96" s="4"/>
       <c r="E96" s="7"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14">
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4106,10 +4332,10 @@
       <c r="D97" s="4"/>
       <c r="E97" s="7"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14">
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4132,10 +4358,10 @@
       <c r="D98" s="4"/>
       <c r="E98" s="7"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14">
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4158,10 +4384,10 @@
       <c r="D99" s="4"/>
       <c r="E99" s="7"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14">
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4184,10 +4410,10 @@
       <c r="D100" s="4"/>
       <c r="E100" s="7"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14">
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4210,10 +4436,10 @@
       <c r="D101" s="4"/>
       <c r="E101" s="7"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14">
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4236,10 +4462,10 @@
       <c r="D102" s="4"/>
       <c r="E102" s="7"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14">
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4344,11 +4570,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -4356,12 +4582,12 @@
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15">
+      <c r="A55" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A107" s="15">
+      <c r="A107" s="14">
         <v>6</v>
       </c>
       <c r="Y107" t="s">
@@ -4369,7 +4595,7 @@
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="15">
+      <c r="A156" s="14">
         <v>7</v>
       </c>
     </row>

--- a/交易记录.xlsx
+++ b/交易记录.xlsx
@@ -14,13 +14,15 @@
     <sheet name="21-30" sheetId="6" r:id="rId5"/>
     <sheet name="31-40" sheetId="7" r:id="rId6"/>
     <sheet name="41-50" sheetId="8" r:id="rId7"/>
+    <sheet name="策略A" sheetId="9" r:id="rId8"/>
+    <sheet name="策略B" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="194">
   <si>
     <t>进场值</t>
   </si>
@@ -463,30 +465,15 @@
     <t>12/27/2018</t>
   </si>
   <si>
-    <t xml:space="preserve">必须满足3个条件  </t>
-  </si>
-  <si>
-    <t>MACD为正，stoch 上正，0.8和0.6上升</t>
-  </si>
-  <si>
-    <t>MACD为负，stoch 为负，0.8和0.6下降</t>
-  </si>
-  <si>
     <t>出场原则  满足两个必须出场</t>
   </si>
   <si>
-    <t>MACD离0轴较远时，可以做建仓考虑</t>
-  </si>
-  <si>
     <t>关键点 MACD 正负的变化</t>
   </si>
   <si>
     <t>关键原则</t>
   </si>
   <si>
-    <t>三个信号相同进入， 两个信号相同出来</t>
-  </si>
-  <si>
     <t>12/28/2018</t>
   </si>
   <si>
@@ -530,6 +517,93 @@
   </si>
   <si>
     <t>没沉住气H4 MACD还没有为正知识交叉</t>
+  </si>
+  <si>
+    <t>2019/1/25</t>
+  </si>
+  <si>
+    <t>MACD跟随交易</t>
+  </si>
+  <si>
+    <t>不要盈利的单子做成亏损的单子</t>
+  </si>
+  <si>
+    <t>看H1作为进场（不要进场就亏损）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">磅日  JP225   US500  </t>
+  </si>
+  <si>
+    <t>3同进，2逆出</t>
+  </si>
+  <si>
+    <t>JP225</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>US500</t>
+  </si>
+  <si>
+    <t>跟随交易   设置平损</t>
+  </si>
+  <si>
+    <t>策略A  日线交易</t>
+  </si>
+  <si>
+    <t>策略B   H4  H1交易</t>
+  </si>
+  <si>
+    <t>看H1 H4作为进场（不要进场就亏损）</t>
+  </si>
+  <si>
+    <t>4同进，2逆出</t>
+  </si>
+  <si>
+    <t>设置跟随平损  （1000点止损，100点平损）</t>
+  </si>
+  <si>
+    <t>四个信号相同进入， 两个信号相同出来</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必须满足4个条件  </t>
+  </si>
+  <si>
+    <t>MACD为正，stoch 上正，0.8和0.6上升 0.6为1则正好</t>
+  </si>
+  <si>
+    <t>MACD为负，stoch 为负，0.8和0.6下降 0.6为0则正好</t>
+  </si>
+  <si>
+    <t>0.8 最好为(1/0)有一段时间，则可断定波动结束</t>
+  </si>
+  <si>
+    <t>看均线是否交易 进场 H4的20,60，200均线纠缠说明是震动，，  200是生死线</t>
+  </si>
+  <si>
+    <t>2019/1/29</t>
+  </si>
+  <si>
+    <t>2019/1/28</t>
+  </si>
+  <si>
+    <t>2019/1/30</t>
+  </si>
+  <si>
+    <t>ノ</t>
+  </si>
+  <si>
+    <t>2019/1/31</t>
+  </si>
+  <si>
+    <t>2019/2/1</t>
+  </si>
+  <si>
+    <t>2019/2/4</t>
+  </si>
+  <si>
+    <t>2019/2/5</t>
   </si>
 </sst>
 </file>
@@ -539,7 +613,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +640,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -603,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -626,11 +708,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,6 +837,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -872,6 +1048,125 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="28277127"/>
+          <a:ext cx="14631668" cy="8230313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1268</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="731520"/>
+          <a:ext cx="14631668" cy="8230313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1268</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9326880"/>
+          <a:ext cx="14631668" cy="8230313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1268</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>162077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="18825882"/>
           <a:ext cx="14631668" cy="8230313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1174,8 +1469,8 @@
   <dimension ref="A2:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,7 +2377,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>26</v>
@@ -2095,7 +2390,7 @@
         <v>78.004000000000005</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G21" s="13">
         <v>77.599999999999994</v>
@@ -2112,7 +2407,7 @@
         <v>77.599999999999994</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M21" s="13">
         <f t="shared" si="2"/>
@@ -2141,7 +2436,7 @@
         <v>1.14592</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G22" s="13">
         <v>1.1508400000000001</v>
@@ -2158,7 +2453,7 @@
         <v>1.135</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M22" s="13">
         <f t="shared" si="2"/>
@@ -2169,7 +2464,7 @@
         <v>亏</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S22" s="15" t="s">
         <v>133</v>
@@ -2192,7 +2487,7 @@
         <v>0.97680999999999996</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G23" s="13">
         <v>0.97680999999999996</v>
@@ -2207,7 +2502,7 @@
         <v>0.97680999999999996</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="2"/>
@@ -2232,7 +2527,7 @@
         <v>0.98284000000000005</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -2245,7 +2540,7 @@
         <v>0.99185999999999996</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="2"/>
@@ -2259,7 +2554,7 @@
         <v>19</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -2276,7 +2571,7 @@
         <v>124.054</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G25" s="13">
         <v>123.589</v>
@@ -2291,7 +2586,7 @@
         <v>123.589</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M25" s="13">
         <f t="shared" si="2"/>
@@ -2305,7 +2600,7 @@
         <v>142</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
@@ -2325,7 +2620,7 @@
         <v>1.2875300000000001</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G26" s="13">
         <v>1.29236</v>
@@ -2340,7 +2635,7 @@
         <v>1.29236</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M26" s="13">
         <f t="shared" si="2"/>
@@ -2352,7 +2647,7 @@
       </c>
       <c r="R26" s="17"/>
       <c r="S26" s="17" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
@@ -2372,7 +2667,7 @@
         <v>0.71538999999999997</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G27" s="13">
         <v>0.71299999999999997</v>
@@ -2387,7 +2682,7 @@
         <v>0.71355999999999997</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M27" s="13">
         <f t="shared" si="2"/>
@@ -2399,7 +2694,7 @@
       </c>
       <c r="R27" s="17"/>
       <c r="S27" s="17" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="T27" s="17"/>
       <c r="U27" s="17"/>
@@ -2419,7 +2714,7 @@
         <v>142.84700000000001</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -2432,7 +2727,7 @@
         <v>143.34</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M28" s="13">
         <f t="shared" si="2"/>
@@ -2443,7 +2738,9 @@
         <v>盈</v>
       </c>
       <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
+      <c r="S28" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
@@ -2462,7 +2759,7 @@
         <v>0.71204999999999996</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G29" s="13">
         <v>0.71009999999999995</v>
@@ -2477,21 +2774,24 @@
         <v>0.71484999999999999</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="2"/>
         <v>-2.8000000000000247E-3</v>
       </c>
-      <c r="N29" s="9" t="str">
+      <c r="N29" s="18" t="str">
         <f t="shared" si="1"/>
         <v>亏</v>
       </c>
+      <c r="O29" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="P29" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
@@ -2512,7 +2812,7 @@
         <v>0.71238000000000001</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G30" s="13">
         <v>0.91139000000000003</v>
@@ -2527,13 +2827,13 @@
         <v>0.71462000000000003</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="2"/>
         <v>-2.2400000000000198E-3</v>
       </c>
-      <c r="N30" s="9" t="str">
+      <c r="N30" s="18" t="str">
         <f t="shared" si="1"/>
         <v>亏</v>
       </c>
@@ -2541,7 +2841,7 @@
         <v>21</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R30" s="17"/>
       <c r="S30" s="17" t="s">
@@ -2555,31 +2855,44 @@
       <c r="B31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="4"/>
+      <c r="C31" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0.70831</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>盈</v>
+        <v>-0.70831</v>
+      </c>
+      <c r="K31" s="13">
+        <v>0.71460999999999997</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" si="2"/>
+        <v>-6.2999999999999723E-3</v>
+      </c>
+      <c r="N31" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>亏</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="R31" s="17"/>
-      <c r="S31" s="17" t="s">
-        <v>151</v>
-      </c>
+      <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
@@ -2588,26 +2901,41 @@
       <c r="B32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="4"/>
+      <c r="C32" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0.99233000000000005</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>盈</v>
+        <v>-0.99233000000000005</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" s="13">
+        <f t="shared" si="2"/>
+        <v>-2.2699999999999942E-3</v>
+      </c>
+      <c r="N32" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>亏</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
@@ -2619,22 +2947,36 @@
       <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="13">
+        <v>143.56899999999999</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" s="13">
+        <v>143.46899999999999</v>
+      </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-143.56899999999999</v>
+      </c>
+      <c r="K33" s="13">
+        <v>143.46899999999999</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M33" s="13">
+        <f t="shared" si="2"/>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="N33" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2652,26 +2994,43 @@
       <c r="B34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="13">
+        <v>143.20400000000001</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="13">
+        <v>143.10400000000001</v>
+      </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>盈</v>
+        <v>-143.20400000000001</v>
+      </c>
+      <c r="K34" s="13">
+        <v>143.38300000000001</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M34" s="13">
+        <f t="shared" si="2"/>
+        <v>-0.17900000000000205</v>
+      </c>
+      <c r="N34" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>亏</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="R34" s="17"/>
       <c r="S34" s="17" t="s">
@@ -2685,29 +3044,41 @@
       <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="4"/>
+      <c r="C35" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="13">
+        <v>109.003</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-109.003</v>
+      </c>
+      <c r="K35" s="13">
+        <v>108.661</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M35" s="13">
+        <f t="shared" si="2"/>
+        <v>0.34199999999999875</v>
       </c>
       <c r="N35" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
@@ -2718,30 +3089,41 @@
       <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1.1508400000000001</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1508400000000001</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="4"/>
       <c r="M36" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.1508400000000001</v>
       </c>
       <c r="N36" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
+        <v>亏</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="R36" s="17"/>
       <c r="S36" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
@@ -2751,24 +3133,36 @@
       <c r="B37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="4"/>
+      <c r="C37" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="13">
+        <v>142.53899999999999</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="9" t="str">
+        <v>-142.53899999999999</v>
+      </c>
+      <c r="K37" s="13">
+        <v>142.399</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M37" s="13">
+        <f t="shared" si="2"/>
+        <v>0.13999999999998636</v>
+      </c>
+      <c r="N37" s="33" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
@@ -2782,26 +3176,41 @@
       <c r="B38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="4"/>
+      <c r="C38" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="13">
+        <v>142.32400000000001</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>191</v>
+      </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>盈</v>
+        <v>142.32400000000001</v>
+      </c>
+      <c r="K38" s="13">
+        <v>142.11699999999999</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M38" s="13">
+        <f t="shared" si="2"/>
+        <v>-0.20700000000002206</v>
+      </c>
+      <c r="N38" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>亏</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
@@ -2813,29 +3222,44 @@
       <c r="B39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="7">
+        <v>143.56200000000001</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="4"/>
+        <v>143.56200000000001</v>
+      </c>
+      <c r="K39" s="7">
+        <v>143.489</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="M39" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-7.3000000000007503E-2</v>
       </c>
       <c r="N39" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
+        <v>亏</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="S39" s="17"/>
       <c r="T39" s="17"/>
@@ -2846,471 +3270,841 @@
       <c r="B40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="7">
+        <v>143.46899999999999</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="4"/>
+        <v>-143.46899999999999</v>
+      </c>
+      <c r="K40" s="7">
+        <v>143.53100000000001</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="M40" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-6.2000000000011823E-2</v>
       </c>
       <c r="N40" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
+        <v>亏</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R40" s="17" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="7">
+        <v>143.54900000000001</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="4"/>
+        <v>143.54900000000001</v>
+      </c>
+      <c r="K41" s="7">
+        <v>144</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="M41" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.45099999999999341</v>
       </c>
       <c r="N41" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
+      <c r="R41" s="17"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="7">
+        <v>143.79400000000001</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="4"/>
+        <v>-143.79400000000001</v>
+      </c>
+      <c r="K42" s="7">
+        <v>143.69</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M42" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10400000000001342</v>
       </c>
       <c r="N42" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
+      <c r="P42" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="7">
+        <v>143.41200000000001</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="4"/>
+        <v>143.41200000000001</v>
+      </c>
+      <c r="K43" s="7">
+        <v>143.374</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M43" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3.8000000000010914E-2</v>
       </c>
       <c r="N43" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
+        <v>亏</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="7">
+        <v>143.316</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="4"/>
+        <v>-143.316</v>
+      </c>
+      <c r="K44" s="7">
+        <v>143.22900000000001</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M44" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.6999999999989086E-2</v>
       </c>
       <c r="N44" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="7">
+        <v>143.30500000000001</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="4"/>
+        <v>143.30500000000001</v>
+      </c>
+      <c r="K45" s="7">
+        <v>143.35</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M45" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.4999999999987494E-2</v>
       </c>
       <c r="N45" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="7">
+        <v>143.18</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="4"/>
+        <v>-143.18</v>
+      </c>
+      <c r="K46" s="7">
+        <v>143.38499999999999</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M46" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.20499999999998408</v>
       </c>
       <c r="N46" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
+        <v>亏</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="7">
+        <v>143.49199999999999</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="4"/>
+        <v>143.49199999999999</v>
+      </c>
+      <c r="K47" s="7">
+        <v>143.16200000000001</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M47" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.32999999999998408</v>
       </c>
       <c r="N47" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+        <v>亏</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+    </row>
+    <row r="48" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="7">
+        <v>143.107</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="4"/>
+        <v>-143.107</v>
+      </c>
+      <c r="K48" s="7">
+        <v>143.02000000000001</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M48" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.6999999999989086E-2</v>
       </c>
       <c r="N48" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="7">
+        <v>143.00200000000001</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="4"/>
+        <v>-143.00200000000001</v>
+      </c>
+      <c r="K49" s="7">
+        <v>143.08099999999999</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M49" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-7.8999999999979309E-2</v>
       </c>
       <c r="N49" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+        <v>亏</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="25"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="7">
+        <v>143.07900000000001</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="7"/>
-      <c r="L50" s="4"/>
+        <v>143.07900000000001</v>
+      </c>
+      <c r="K50" s="7">
+        <v>143.00800000000001</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M50" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-7.0999999999997954E-2</v>
       </c>
       <c r="N50" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+        <v>亏</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="28"/>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="7">
+        <v>143.01</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="4"/>
+        <v>-143.01</v>
+      </c>
+      <c r="K51" s="7">
+        <v>143.09</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M51" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-8.0000000000012506E-2</v>
       </c>
       <c r="N51" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+        <v>亏</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="28"/>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="7">
+        <v>143.078</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="4"/>
+        <v>143.078</v>
+      </c>
+      <c r="K52" s="7">
+        <v>143.018</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M52" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-6.0000000000002274E-2</v>
       </c>
       <c r="N52" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+        <v>亏</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="28"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="7">
+        <v>143.04900000000001</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="4"/>
+        <v>-143.04900000000001</v>
+      </c>
+      <c r="K53" s="7">
+        <v>143.03899999999999</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M53" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0000000000019327E-2</v>
       </c>
       <c r="N53" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P53" s="26"/>
+      <c r="Q53" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="28"/>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="7">
+        <v>143.042</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="4"/>
+        <v>-143.042</v>
+      </c>
+      <c r="K54" s="7">
+        <v>143.03</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M54" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2000000000000455E-2</v>
       </c>
       <c r="N54" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P54" s="26"/>
+      <c r="Q54" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="28"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="7">
+        <v>142.72</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="4"/>
+        <v>-142.72</v>
+      </c>
+      <c r="K55" s="7">
+        <v>142.523</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M55" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.19700000000000273</v>
       </c>
       <c r="N55" s="9" t="str">
         <f t="shared" si="1"/>
         <v>盈</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P55" s="26"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="28"/>
+    </row>
+    <row r="56" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="7">
+        <v>142.43100000000001</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="7"/>
-      <c r="L56" s="4"/>
+        <v>-142.43100000000001</v>
+      </c>
+      <c r="K56" s="7">
+        <v>142.62100000000001</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M56" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.18999999999999773</v>
       </c>
       <c r="N56" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+        <v>亏</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="31"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="7">
+        <v>142.63800000000001</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="4"/>
+        <v>142.63800000000001</v>
+      </c>
+      <c r="K57" s="7">
+        <v>142.62200000000001</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="M57" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.5999999999991132E-2</v>
       </c>
       <c r="N57" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>盈</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+        <v>亏</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>63</v>
       </c>
@@ -3336,7 +4130,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>64</v>
       </c>
@@ -3362,7 +4156,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>65</v>
       </c>
@@ -3388,7 +4182,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>66</v>
       </c>
@@ -3414,7 +4208,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>67</v>
       </c>
@@ -3440,7 +4234,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>68</v>
       </c>
@@ -3466,7 +4260,7 @@
         <v>盈</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>69</v>
       </c>
@@ -4488,15 +5282,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>参数!$A$1:$A$10</xm:f>
+            <xm:f>参数!$B$1:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C102</xm:sqref>
+          <xm:sqref>D3:D102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>参数!$B$1:$B$10</xm:f>
+            <xm:f>参数!$A$1:$A$20</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D102</xm:sqref>
+          <xm:sqref>C3:C102</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4506,10 +5300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4553,6 +5347,26 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4645,11 +5459,78 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K103"/>
+  <sheetViews>
+    <sheetView topLeftCell="A97" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K105" sqref="K105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J100">
+        <v>20674.25</v>
+      </c>
+      <c r="K100">
+        <v>2648.5</v>
+      </c>
+    </row>
+    <row r="101" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J101">
+        <v>20683.75</v>
+      </c>
+      <c r="K101">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="102" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J102">
+        <f>J101-J100</f>
+        <v>9.5</v>
+      </c>
+      <c r="K102">
+        <f>K101-K100</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J103">
+        <f>J102/J101</f>
+        <v>4.5929775790173443E-4</v>
+      </c>
+      <c r="K103">
+        <f>K102/K101</f>
+        <v>-1.8882175226586103E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
